--- a/2_output/1_alpha/correlations_v1.xlsx
+++ b/2_output/1_alpha/correlations_v1.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="P" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -1195,4 +1196,818 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00000000000000000000000000276063969678498</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000000189082823490388</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000501169233618744</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000000000000000000685746657666067</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.000000353186776310497</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000103642253329641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0000000000000000000267112378188401</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000283041954277626</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000192188006414209</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.000000000000000147058973429203</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000374010308927647</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.000000000000629086418596849</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0000000000000000000000000000438196777267458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000000000000000000000000000000000000000000135222194354172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000000000000000000715673499132896</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000530478381253046</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0000000000000000000000000000920375245738558</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000000000000000000171898523712825</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246437353500821</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000000000000000000148195389268142</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.000000000061620727766706</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000121812257894155</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00000000000000102289184788669</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00000000510536853483697</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000033223511807775</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0000000151163107289773</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00000000822099232566902</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00000000000000000000000000000000000000000000185235882676948</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000000873985558159398</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000000000000000000000101888276734414</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000792556363161717</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00000800112391582509</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000000000000000000000000000000305110792933807</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000773337394253319</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0000042431362067136</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000000000000000000000000081558437290855</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000652643968661481</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.000205790567169676</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0000000000000000000000242072171210055</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.000000000000000000000000000000000000722745972773615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000477304032017852</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0000000000000000000152270957262318</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0000000436992779079699</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000000000000000913897129965601</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00000157155516838017</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000303023881887417</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0000000000000475445955887301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000344841081113541</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000061279994953169</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00000000000000387451142125659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000302747959005842</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.000000000000511534204638059</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.000344841081113541</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0000000000000000000000126990121790012</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000520076844365732</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00000000000000000000000000000000152072054827483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00000000000000000207703893174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0000000000000000000000000000000000000000000066157133012409</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.000000000000000000171898523712825</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000145465944778936</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00000000000000000000135581237486659</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00000000000335807169127071</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000896349610422495</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.00000000000000460705166930268</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00000000000439383433152845</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000356645954529815</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.00000000000672263553246786</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0000000168184179195475</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0000000000000000000000000000014380863214665</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000093241925077849</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0000000827134299147458</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00000000000000000000000000000000000000000000008940153109785</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0000000523310234019529</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0000000000000000000000000000000000000339750279794716</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000310484316424928</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0000429368655983603</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00000000000000000000000000000000000695787990201992</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000167586357760756</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0000497251404691002</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.000000000000000000000000428770626393498</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000332602848591347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000103642253329641</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00000000000000000000343797047425651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.000000533408261055006</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000294197943580016</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00000000000000000000344253556511523</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0000000021804593084147</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0000000000000000000000000516508096251457</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000000462010810262298</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000950986119471777</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0000000000000000000000000863206632463473</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.000000202706076591745</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000309458588144663</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0000000000000000196072785400502</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.00000979096022153494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00000000000000000000051367765036231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000256705576563355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00000000000000000000000000000000462289080202738</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00000000000000132068321079806</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000146935297756501</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000000000000000000000000000000000000000478521520837629</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000000000000000000000000000846734584018783</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000444266703649183</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00000000000183030310962514</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000186740620163051</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0000000000000000000000000967483022197043</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0000000000000444816302749272</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000415212054852318</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.000000000000000000708052564974917</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0000314491060308473</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00000000000000000000290579194643416</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000095473752376953</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0000447125474149827</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000000000000000000000255813655635205</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000348858782499919</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00000000184804324104919</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000584561452169977</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00000000000000000000000000000000000164874219808118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000124292904533725</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00000000000000000000000000000454665300484036</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000502501685258294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000211195611444186</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00000000000220074027738236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000000249596247453741</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000645052578454411</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00000000000010493974035221</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00000330283581525849</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000914409730261324</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0000000000000554637305947012</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000172779937427448</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0000000000000000377539168417391</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0000497251404691002</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000013844350245242</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0000000000052077663351532</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.000942210710895941</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00000000000000000341997612626054</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000145014592731137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00000000000000000000000000135930728818092</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0000000000000000968627855314148</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101857910275284</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.000000000000000000000000000000000000102321763264999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00000000000000000000000000146306208892114</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000192516103260878</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0000000000000000000000000000000000000238948144649446</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.000000000000000000838975929816424</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000107233335431364</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.00000000000000030639566820376</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178815525091248</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.00000000000000000000002289569308398</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00022403400088206</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0000000000000000249485816557729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000836723036745489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0002763087299636</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00000000000000011812952998212</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194867857861345</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00000000921391257235206</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0000000000000000000000000016680741762018</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133648284444866</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.00000414376170575835</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.000000000000000000000000000000000000000000000000142977780575153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00000162514449434396</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0000000000000000000000000392578793585663</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000149681979087403</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000450614830033309</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.000000000189087723512481</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0000205790567169676</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000336386621117602</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000000000141736591339627</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00000426230814026179</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000315774069535371</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00000000000000120220622364668</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000157035118482657</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000137072774705367</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.00000000000000000729513495723238</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.000000090285805241331</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0000000000000075306926765771</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.00000435900952926966</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0000000000000185025417234367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000420550782376899</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000000000000000000000000440131220381919</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0000000000000146152629896588</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000434934090890018</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000000000000000000000000007522291691114</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000000000000000000426245185653265</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000441714951970551</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0000000000000000000000000000000699485077667747</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.000000000000173592211171773</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194364701186139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.000000000000000000000000000633191602557521</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.000000000000000198176123067818</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.00000000000000000000000000000000000000000114609923184304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.000309490731894019</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.000000000581396566499125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0000000000000000000000000000000000000103249424681945</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0000431051351391927</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000000000000231815018360961</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000431951751417334</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00000069935430153821</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0000000000000000000147510951036441</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000628127106572868</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.000673534417224248</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.000000000000000000000000408851662213929</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000172048251824601</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.000000272438095579354</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0000000000000000000000000000000000000000000159180448867089</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>